--- a/thymio/data/Data Robot Sensor.xlsx
+++ b/thymio/data/Data Robot Sensor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msommerfeld/Desktop/university_learning/master/DSDM/exchange/Robotics/advanced_robotics/thymio/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{640E278E-3268-4C6B-BEF5-CD4E2D048092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F14E47D-EFDC-0843-B699-267E9A85A1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA (3)" sheetId="4" r:id="rId1"/>
@@ -21,19 +21,30 @@
   <definedNames>
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">'DATA (3)'!$A$1:$A$253</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Consulta - DATA" description="Conexión a la consulta 'DATA' en el libro." type="5" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Consulta - DATA" description="Conexión a la consulta 'DATA' en el libro." type="5" refreshedVersion="0" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=DATA;Extended Properties=&quot;&quot;" command="SELECT * FROM [DATA]"/>
   </connection>
-  <connection id="2" keepAlive="1" name="Consulta - DATA (2)" description="Conexión a la consulta 'DATA (2)' en el libro." type="5" refreshedVersion="7" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" keepAlive="1" name="Consulta - DATA (2)" description="Conexión a la consulta 'DATA (2)' en el libro." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;DATA (2)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [DATA (2)]"/>
   </connection>
-  <connection id="3" keepAlive="1" name="Consulta - DATA (3)" description="Conexión a la consulta 'DATA (3)' en el libro." type="5" refreshedVersion="7" background="1" saveData="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" keepAlive="1" name="Consulta - DATA (3)" description="Conexión a la consulta 'DATA (3)' en el libro." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;DATA (3)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [DATA (3)]"/>
   </connection>
 </connections>
@@ -881,7 +892,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1382,48 +1393,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1441,7 +1452,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1478,7 +1489,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2122,7 +2133,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1041897128"/>
@@ -2184,7 +2195,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1041894176"/>
@@ -2225,7 +2236,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2239,7 +2250,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2276,7 +2287,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2334,6 +2345,40 @@
                   <c:y val="-0.1123170020414114"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y =  2.9084x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> + 103.76x + 3567.7</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2359,7 +2404,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-DE"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2503,7 +2548,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="870255064"/>
@@ -2565,7 +2610,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="870249816"/>
@@ -2606,7 +2651,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3812,7 +3857,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DatosExternos_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_1" connectionId="3" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" name=" prox.horizontal[2] " tableColumnId="1"/>
@@ -3822,17 +3867,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="DATA__3" displayName="DATA__3" ref="A1:A253" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:A253"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DATA__3" displayName="DATA__3" ref="A1:A253" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:A253" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name=" prox.horizontal[2] " queryTableFieldId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name=" prox.horizontal[2] " queryTableFieldId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4127,1279 +4172,1279 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A253"/>
   <sheetViews>
-    <sheetView topLeftCell="A232" workbookViewId="0">
-      <selection sqref="A1:A253"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C250" sqref="C250"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3564000000</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3565000000</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3559000000</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3565000000</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3567000000</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3573000000</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3563000000</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3574000000</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3557000000</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3558000000</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3558000000</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3549000000</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3547000000</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3550000000</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3533000000</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3532000000</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3543000000</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3543000000</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3544000000</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3544000000</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3536000000</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3529000000</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3528000000</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3533000000</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3533000000</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3534000000</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3533000000</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3530000000</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3530000000</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3528000000</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3530000000</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3520000000</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3505000000</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4878000000</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4943000000</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4877000000</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4837000000</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>4784000000</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4774000000</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4776000000</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4776000000</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>4777000000</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4772000000</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4773000000</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4774000000</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4774000000</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>4774000000</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4774000000</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4772000000</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>4775000000</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>4771000000</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>4771000000</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>4778000000</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>4777000000</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>4771000000</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>4772000000</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>4773000000</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>4776000000</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>4773000000</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4774000000</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>4774000000</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>4774000000</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>4772000000</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>4775000000</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>4775000000</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>4769000000</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>4778000000</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>4755000000</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>4714000000</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>4623000000</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>4550000000</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>4276000000</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>4223000000</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>4220000000</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>4219000000</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>4215000000</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>4217000000</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>4217000000</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>4217000000</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>4220000000</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>4216000000</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>4218000000</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>4218000000</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>4216000000</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>4218000000</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>4218000000</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>4219000000</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>4219000000</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>4216000000</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>4218000000</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>4220000000</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>4217000000</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>4216000000</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>4212000000</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>4216000000</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>4221000000</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>4221000000</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>4216000000</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>4220000000</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>4215000000</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>4218000000</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>4218000000</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>4219000000</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>4218000000</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>4221000000</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>4222000000</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>4219000000</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>4214000000</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>4116000000</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>4007000000</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>3892000000</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>3672000000</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>3568000000</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>3420000000</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>3423000000</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>3418000000</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>3419000000</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>3417000000</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>3419000000</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>3419000000</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>3421000000</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>3422000000</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>3420000000</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>3417000000</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>3420000000</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>3423000000</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>3411000000</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>3424000000</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>3421000000</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>3418000000</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>3420000000</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>3419000000</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>3419000000</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>3418000000</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>3419000000</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>3420000000</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>3423000000</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>3421000000</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>3413000000</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>3351000000</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>3176000000</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>3091000000</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2911000000</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2829000000</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2798000000</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2799000000</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2801000000</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2799000000</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2800000000</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2798000000</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2802000000</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2799000000</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2798000000</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2801000000</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2798000000</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2796000000</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2800000000</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2800000000</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2798000000</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2798000000</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2803000000</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2801000000</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2799000000</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2800000000</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>2802000000</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2802000000</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>2798000000</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>2799000000</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>2797000000</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2798000000</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2798000000</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2800000000</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>2798000000</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>2800000000</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>2797000000</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2801000000</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2796000000</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2801000000</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>2799000000</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2804000000</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>2798000000</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2801000000</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2799000000</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2804000000</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>2801000000</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2803000000</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>2717000000</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2647000000</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2492000000</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>2419000000</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>2258000000</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>2248000000</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2243000000</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>2245000000</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>2244000000</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>2244000000</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>2243000000</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2242000000</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>2242000000</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2245000000</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>2243000000</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2243000000</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2247000000</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2244000000</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>2243000000</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2247000000</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>2246000000</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>2246000000</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>2242000000</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>2243000000</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>2246000000</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2246000000</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2244000000</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>2247000000</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>2241000000</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>2246000000</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>2244000000</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>2244000000</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2246000000</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>2246000000</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>2248000000</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2244000000</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2246000000</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2248000000</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>2189000000</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2119000000</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>1958000000</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>1874000000</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>1791000000</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>1619000000</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>1621000000</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>1616000000</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>1623000000</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>1617000000</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>1620000000</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>1623000000</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>1619000000</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>1620000000</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>1619000000</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>1624000000</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>1618000000</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>1622000000</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>1620000000</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>1619000000</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>1623000000</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>1620000000</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>1622000000</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>1625000000</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>1622000000</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>1617000000</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>1623000000</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>0</v>
       </c>
@@ -5413,19 +5458,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G252"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>253</v>
       </c>
@@ -5437,7 +5482,7 @@
         <v>3547.3793103448274</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3564000000</v>
       </c>
@@ -5456,12 +5501,12 @@
         <v>4773.8500000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3565000000</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:D66" si="0">A3/1000000</f>
+        <f t="shared" ref="B3:B66" si="0">A3/1000000</f>
         <v>3565</v>
       </c>
       <c r="D3">
@@ -5475,7 +5520,7 @@
         <v>4217.8999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3559000000</v>
       </c>
@@ -5494,7 +5539,7 @@
         <v>3419.2777777777778</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3565000000</v>
       </c>
@@ -5513,7 +5558,7 @@
         <v>2799.2580645161293</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3567000000</v>
       </c>
@@ -5532,7 +5577,7 @@
         <v>1620.9411764705883</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3573000000</v>
       </c>
@@ -5544,7 +5589,7 @@
         <v>3573</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3563000000</v>
       </c>
@@ -5556,7 +5601,7 @@
         <v>3563</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3574000000</v>
       </c>
@@ -5568,7 +5613,7 @@
         <v>3574</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3557000000</v>
       </c>
@@ -5580,7 +5625,7 @@
         <v>3557</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3558000000</v>
       </c>
@@ -5592,7 +5637,7 @@
         <v>3558</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3558000000</v>
       </c>
@@ -5604,7 +5649,7 @@
         <v>3558</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3549000000</v>
       </c>
@@ -5616,7 +5661,7 @@
         <v>3549</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3547000000</v>
       </c>
@@ -5628,7 +5673,7 @@
         <v>3547</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3550000000</v>
       </c>
@@ -5640,7 +5685,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3533000000</v>
       </c>
@@ -5652,7 +5697,7 @@
         <v>3533</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3532000000</v>
       </c>
@@ -5664,7 +5709,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3543000000</v>
       </c>
@@ -5676,7 +5721,7 @@
         <v>3543</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3543000000</v>
       </c>
@@ -5688,7 +5733,7 @@
         <v>3543</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3544000000</v>
       </c>
@@ -5700,7 +5745,7 @@
         <v>3544</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3544000000</v>
       </c>
@@ -5712,7 +5757,7 @@
         <v>3544</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3536000000</v>
       </c>
@@ -5724,7 +5769,7 @@
         <v>3536</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3529000000</v>
       </c>
@@ -5736,7 +5781,7 @@
         <v>3529</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3528000000</v>
       </c>
@@ -5748,7 +5793,7 @@
         <v>3528</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3533000000</v>
       </c>
@@ -5760,7 +5805,7 @@
         <v>3533</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3533000000</v>
       </c>
@@ -5772,7 +5817,7 @@
         <v>3533</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3534000000</v>
       </c>
@@ -5784,7 +5829,7 @@
         <v>3534</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3533000000</v>
       </c>
@@ -5796,7 +5841,7 @@
         <v>3533</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3530000000</v>
       </c>
@@ -5808,7 +5853,7 @@
         <v>3530</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3530000000</v>
       </c>
@@ -5820,7 +5865,7 @@
         <v>3530</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3528000000</v>
       </c>
@@ -5829,7 +5874,7 @@
         <v>3528</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3530000000</v>
       </c>
@@ -5838,7 +5883,7 @@
         <v>3530</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3520000000</v>
       </c>
@@ -5847,7 +5892,7 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3505000000</v>
       </c>
@@ -5856,7 +5901,7 @@
         <v>3505</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4878000000</v>
       </c>
@@ -5865,7 +5910,7 @@
         <v>4878</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4943000000</v>
       </c>
@@ -5874,7 +5919,7 @@
         <v>4943</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4877000000</v>
       </c>
@@ -5883,7 +5928,7 @@
         <v>4877</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4837000000</v>
       </c>
@@ -5892,7 +5937,7 @@
         <v>4837</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>4784000000</v>
       </c>
@@ -5901,7 +5946,7 @@
         <v>4784</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4774000000</v>
       </c>
@@ -5910,7 +5955,7 @@
         <v>4774</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4776000000</v>
       </c>
@@ -5919,7 +5964,7 @@
         <v>4776</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4776000000</v>
       </c>
@@ -5931,7 +5976,7 @@
         <v>4776</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>4777000000</v>
       </c>
@@ -5943,7 +5988,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4772000000</v>
       </c>
@@ -5955,7 +6000,7 @@
         <v>4772</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4773000000</v>
       </c>
@@ -5967,7 +6012,7 @@
         <v>4773</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4774000000</v>
       </c>
@@ -5979,7 +6024,7 @@
         <v>4774</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4774000000</v>
       </c>
@@ -5991,7 +6036,7 @@
         <v>4774</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>4774000000</v>
       </c>
@@ -6003,7 +6048,7 @@
         <v>4774</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4774000000</v>
       </c>
@@ -6015,7 +6060,7 @@
         <v>4774</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4772000000</v>
       </c>
@@ -6027,7 +6072,7 @@
         <v>4772</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>4775000000</v>
       </c>
@@ -6039,7 +6084,7 @@
         <v>4775</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>4771000000</v>
       </c>
@@ -6051,7 +6096,7 @@
         <v>4771</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>4771000000</v>
       </c>
@@ -6063,7 +6108,7 @@
         <v>4771</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>4778000000</v>
       </c>
@@ -6075,7 +6120,7 @@
         <v>4778</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>4777000000</v>
       </c>
@@ -6087,7 +6132,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>4771000000</v>
       </c>
@@ -6099,7 +6144,7 @@
         <v>4771</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>4772000000</v>
       </c>
@@ -6111,7 +6156,7 @@
         <v>4772</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>4773000000</v>
       </c>
@@ -6123,7 +6168,7 @@
         <v>4773</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>4776000000</v>
       </c>
@@ -6135,7 +6180,7 @@
         <v>4776</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>4773000000</v>
       </c>
@@ -6147,7 +6192,7 @@
         <v>4773</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4774000000</v>
       </c>
@@ -6159,7 +6204,7 @@
         <v>4774</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>4774000000</v>
       </c>
@@ -6168,7 +6213,7 @@
         <v>4774</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>4774000000</v>
       </c>
@@ -6177,7 +6222,7 @@
         <v>4774</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>4772000000</v>
       </c>
@@ -6186,7 +6231,7 @@
         <v>4772</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>4775000000</v>
       </c>
@@ -6195,7 +6240,7 @@
         <v>4775</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>4775000000</v>
       </c>
@@ -6204,16 +6249,16 @@
         <v>4775</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>4769000000</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:D130" si="1">A67/1000000</f>
+        <f t="shared" ref="B67:B130" si="1">A67/1000000</f>
         <v>4769</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>4778000000</v>
       </c>
@@ -6222,7 +6267,7 @@
         <v>4778</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>4755000000</v>
       </c>
@@ -6231,7 +6276,7 @@
         <v>4755</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>4714000000</v>
       </c>
@@ -6240,7 +6285,7 @@
         <v>4714</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>4623000000</v>
       </c>
@@ -6249,7 +6294,7 @@
         <v>4623</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>4550000000</v>
       </c>
@@ -6258,7 +6303,7 @@
         <v>4550</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>4276000000</v>
       </c>
@@ -6267,7 +6312,7 @@
         <v>4276</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>4223000000</v>
       </c>
@@ -6276,7 +6321,7 @@
         <v>4223</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>4220000000</v>
       </c>
@@ -6285,7 +6330,7 @@
         <v>4220</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>4219000000</v>
       </c>
@@ -6294,7 +6339,7 @@
         <v>4219</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>4215000000</v>
       </c>
@@ -6303,7 +6348,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>4217000000</v>
       </c>
@@ -6315,7 +6360,7 @@
         <v>4217</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>4217000000</v>
       </c>
@@ -6327,7 +6372,7 @@
         <v>4217</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>4217000000</v>
       </c>
@@ -6339,7 +6384,7 @@
         <v>4217</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>4220000000</v>
       </c>
@@ -6351,7 +6396,7 @@
         <v>4220</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>4216000000</v>
       </c>
@@ -6363,7 +6408,7 @@
         <v>4216</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>4218000000</v>
       </c>
@@ -6375,7 +6420,7 @@
         <v>4218</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>4218000000</v>
       </c>
@@ -6387,7 +6432,7 @@
         <v>4218</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>4216000000</v>
       </c>
@@ -6399,7 +6444,7 @@
         <v>4216</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>4218000000</v>
       </c>
@@ -6411,7 +6456,7 @@
         <v>4218</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>4218000000</v>
       </c>
@@ -6423,7 +6468,7 @@
         <v>4218</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>4219000000</v>
       </c>
@@ -6435,7 +6480,7 @@
         <v>4219</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>4219000000</v>
       </c>
@@ -6447,7 +6492,7 @@
         <v>4219</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>4216000000</v>
       </c>
@@ -6459,7 +6504,7 @@
         <v>4216</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>4218000000</v>
       </c>
@@ -6471,7 +6516,7 @@
         <v>4218</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>4220000000</v>
       </c>
@@ -6483,7 +6528,7 @@
         <v>4220</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>4217000000</v>
       </c>
@@ -6495,7 +6540,7 @@
         <v>4217</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>4216000000</v>
       </c>
@@ -6507,7 +6552,7 @@
         <v>4216</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>4212000000</v>
       </c>
@@ -6519,7 +6564,7 @@
         <v>4212</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>4216000000</v>
       </c>
@@ -6531,7 +6576,7 @@
         <v>4216</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>4221000000</v>
       </c>
@@ -6543,7 +6588,7 @@
         <v>4221</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>4221000000</v>
       </c>
@@ -6555,7 +6600,7 @@
         <v>4221</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>4216000000</v>
       </c>
@@ -6567,7 +6612,7 @@
         <v>4216</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>4220000000</v>
       </c>
@@ -6579,7 +6624,7 @@
         <v>4220</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>4215000000</v>
       </c>
@@ -6591,7 +6636,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>4218000000</v>
       </c>
@@ -6603,7 +6648,7 @@
         <v>4218</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>4218000000</v>
       </c>
@@ -6615,7 +6660,7 @@
         <v>4218</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>4219000000</v>
       </c>
@@ -6627,7 +6672,7 @@
         <v>4219</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>4218000000</v>
       </c>
@@ -6639,7 +6684,7 @@
         <v>4218</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>4221000000</v>
       </c>
@@ -6651,7 +6696,7 @@
         <v>4221</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>4222000000</v>
       </c>
@@ -6663,7 +6708,7 @@
         <v>4222</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>4219000000</v>
       </c>
@@ -6672,7 +6717,7 @@
         <v>4219</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>4214000000</v>
       </c>
@@ -6681,7 +6726,7 @@
         <v>4214</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>4116000000</v>
       </c>
@@ -6690,7 +6735,7 @@
         <v>4116</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>4007000000</v>
       </c>
@@ -6699,7 +6744,7 @@
         <v>4007</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>3892000000</v>
       </c>
@@ -6708,7 +6753,7 @@
         <v>3892</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>3672000000</v>
       </c>
@@ -6717,7 +6762,7 @@
         <v>3672</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>3568000000</v>
       </c>
@@ -6726,7 +6771,7 @@
         <v>3568</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>3420000000</v>
       </c>
@@ -6735,7 +6780,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>3423000000</v>
       </c>
@@ -6744,7 +6789,7 @@
         <v>3423</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>3418000000</v>
       </c>
@@ -6753,7 +6798,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>3419000000</v>
       </c>
@@ -6765,7 +6810,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>3417000000</v>
       </c>
@@ -6777,7 +6822,7 @@
         <v>3417</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>3419000000</v>
       </c>
@@ -6789,7 +6834,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>3419000000</v>
       </c>
@@ -6801,7 +6846,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>3421000000</v>
       </c>
@@ -6813,7 +6858,7 @@
         <v>3421</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>3422000000</v>
       </c>
@@ -6825,7 +6870,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>3420000000</v>
       </c>
@@ -6837,7 +6882,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>3417000000</v>
       </c>
@@ -6849,7 +6894,7 @@
         <v>3417</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>3420000000</v>
       </c>
@@ -6861,7 +6906,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>3423000000</v>
       </c>
@@ -6873,7 +6918,7 @@
         <v>3423</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>3411000000</v>
       </c>
@@ -6885,7 +6930,7 @@
         <v>3411</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>3424000000</v>
       </c>
@@ -6897,7 +6942,7 @@
         <v>3424</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>3421000000</v>
       </c>
@@ -6909,19 +6954,19 @@
         <v>3421</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>3418000000</v>
       </c>
       <c r="B131">
-        <f t="shared" ref="B131:D194" si="2">A131/1000000</f>
+        <f t="shared" ref="B131:B194" si="2">A131/1000000</f>
         <v>3418</v>
       </c>
       <c r="D131">
         <v>3418</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>3420000000</v>
       </c>
@@ -6933,7 +6978,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>3419000000</v>
       </c>
@@ -6945,7 +6990,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>3419000000</v>
       </c>
@@ -6957,7 +7002,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>3418000000</v>
       </c>
@@ -6969,7 +7014,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>3419000000</v>
       </c>
@@ -6978,7 +7023,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>3420000000</v>
       </c>
@@ -6987,7 +7032,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>3423000000</v>
       </c>
@@ -6996,7 +7041,7 @@
         <v>3423</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>3421000000</v>
       </c>
@@ -7005,7 +7050,7 @@
         <v>3421</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>3413000000</v>
       </c>
@@ -7014,7 +7059,7 @@
         <v>3413</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>3351000000</v>
       </c>
@@ -7023,7 +7068,7 @@
         <v>3351</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>3176000000</v>
       </c>
@@ -7032,7 +7077,7 @@
         <v>3176</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>3091000000</v>
       </c>
@@ -7041,7 +7086,7 @@
         <v>3091</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2911000000</v>
       </c>
@@ -7050,7 +7095,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2829000000</v>
       </c>
@@ -7059,7 +7104,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2798000000</v>
       </c>
@@ -7068,7 +7113,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2799000000</v>
       </c>
@@ -7077,7 +7122,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2801000000</v>
       </c>
@@ -7089,7 +7134,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2799000000</v>
       </c>
@@ -7101,7 +7146,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2800000000</v>
       </c>
@@ -7113,7 +7158,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2798000000</v>
       </c>
@@ -7125,7 +7170,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2802000000</v>
       </c>
@@ -7137,7 +7182,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2799000000</v>
       </c>
@@ -7149,7 +7194,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2798000000</v>
       </c>
@@ -7161,7 +7206,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2801000000</v>
       </c>
@@ -7173,7 +7218,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2798000000</v>
       </c>
@@ -7185,7 +7230,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2796000000</v>
       </c>
@@ -7197,7 +7242,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2800000000</v>
       </c>
@@ -7209,7 +7254,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2800000000</v>
       </c>
@@ -7221,7 +7266,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2798000000</v>
       </c>
@@ -7233,7 +7278,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2798000000</v>
       </c>
@@ -7245,7 +7290,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2803000000</v>
       </c>
@@ -7257,7 +7302,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2801000000</v>
       </c>
@@ -7269,7 +7314,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2799000000</v>
       </c>
@@ -7281,7 +7326,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2800000000</v>
       </c>
@@ -7293,7 +7338,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>2802000000</v>
       </c>
@@ -7305,7 +7350,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2802000000</v>
       </c>
@@ -7317,7 +7362,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>2798000000</v>
       </c>
@@ -7329,7 +7374,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>2799000000</v>
       </c>
@@ -7341,7 +7386,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>2797000000</v>
       </c>
@@ -7353,7 +7398,7 @@
         <v>2797</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2798000000</v>
       </c>
@@ -7365,7 +7410,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2798000000</v>
       </c>
@@ -7377,7 +7422,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2800000000</v>
       </c>
@@ -7389,7 +7434,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>2798000000</v>
       </c>
@@ -7401,7 +7446,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>2800000000</v>
       </c>
@@ -7413,7 +7458,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>2797000000</v>
       </c>
@@ -7425,7 +7470,7 @@
         <v>2797</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2801000000</v>
       </c>
@@ -7437,7 +7482,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2796000000</v>
       </c>
@@ -7449,7 +7494,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2801000000</v>
       </c>
@@ -7458,7 +7503,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>2799000000</v>
       </c>
@@ -7467,7 +7512,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2804000000</v>
       </c>
@@ -7476,7 +7521,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>2798000000</v>
       </c>
@@ -7485,7 +7530,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2801000000</v>
       </c>
@@ -7494,7 +7539,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2799000000</v>
       </c>
@@ -7503,7 +7548,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2804000000</v>
       </c>
@@ -7512,7 +7557,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>2801000000</v>
       </c>
@@ -7521,7 +7566,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2803000000</v>
       </c>
@@ -7530,7 +7575,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>2717000000</v>
       </c>
@@ -7539,7 +7584,7 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2647000000</v>
       </c>
@@ -7548,7 +7593,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2492000000</v>
       </c>
@@ -7557,7 +7602,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>2419000000</v>
       </c>
@@ -7566,7 +7611,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>2258000000</v>
       </c>
@@ -7575,7 +7620,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>2248000000</v>
       </c>
@@ -7584,7 +7629,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2243000000</v>
       </c>
@@ -7596,19 +7641,19 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>2245000000</v>
       </c>
       <c r="B195">
-        <f t="shared" ref="B195:D253" si="3">A195/1000000</f>
+        <f t="shared" ref="B195:B252" si="3">A195/1000000</f>
         <v>2245</v>
       </c>
       <c r="D195">
         <v>2245</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>2244000000</v>
       </c>
@@ -7620,7 +7665,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>2244000000</v>
       </c>
@@ -7632,7 +7677,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>2243000000</v>
       </c>
@@ -7644,7 +7689,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2242000000</v>
       </c>
@@ -7656,7 +7701,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>2242000000</v>
       </c>
@@ -7668,7 +7713,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2245000000</v>
       </c>
@@ -7680,7 +7725,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>2243000000</v>
       </c>
@@ -7692,7 +7737,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2243000000</v>
       </c>
@@ -7704,7 +7749,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2247000000</v>
       </c>
@@ -7716,7 +7761,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2244000000</v>
       </c>
@@ -7728,7 +7773,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>2243000000</v>
       </c>
@@ -7740,7 +7785,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2247000000</v>
       </c>
@@ -7752,7 +7797,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>2246000000</v>
       </c>
@@ -7764,7 +7809,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>2246000000</v>
       </c>
@@ -7776,7 +7821,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>2242000000</v>
       </c>
@@ -7788,7 +7833,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>2243000000</v>
       </c>
@@ -7800,7 +7845,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>2246000000</v>
       </c>
@@ -7812,7 +7857,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2246000000</v>
       </c>
@@ -7824,7 +7869,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2244000000</v>
       </c>
@@ -7836,7 +7881,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>2247000000</v>
       </c>
@@ -7848,7 +7893,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>2241000000</v>
       </c>
@@ -7860,7 +7905,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>2246000000</v>
       </c>
@@ -7872,7 +7917,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>2244000000</v>
       </c>
@@ -7884,7 +7929,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>2244000000</v>
       </c>
@@ -7896,7 +7941,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2246000000</v>
       </c>
@@ -7908,7 +7953,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>2246000000</v>
       </c>
@@ -7920,7 +7965,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>2248000000</v>
       </c>
@@ -7932,7 +7977,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2244000000</v>
       </c>
@@ -7944,7 +7989,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2246000000</v>
       </c>
@@ -7956,7 +8001,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2248000000</v>
       </c>
@@ -7965,7 +8010,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>2189000000</v>
       </c>
@@ -7974,7 +8019,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2119000000</v>
       </c>
@@ -7983,7 +8028,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>1958000000</v>
       </c>
@@ -7992,7 +8037,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>1874000000</v>
       </c>
@@ -8001,7 +8046,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>1791000000</v>
       </c>
@@ -8010,7 +8055,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>1619000000</v>
       </c>
@@ -8019,7 +8064,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>1621000000</v>
       </c>
@@ -8028,7 +8073,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>1616000000</v>
       </c>
@@ -8037,7 +8082,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>1623000000</v>
       </c>
@@ -8046,7 +8091,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>1617000000</v>
       </c>
@@ -8055,7 +8100,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>1620000000</v>
       </c>
@@ -8067,7 +8112,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>1623000000</v>
       </c>
@@ -8079,7 +8124,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>1619000000</v>
       </c>
@@ -8091,7 +8136,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>1620000000</v>
       </c>
@@ -8103,7 +8148,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>1619000000</v>
       </c>
@@ -8115,7 +8160,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>1624000000</v>
       </c>
@@ -8127,7 +8172,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>1618000000</v>
       </c>
@@ -8139,7 +8184,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>1622000000</v>
       </c>
@@ -8151,7 +8196,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>1620000000</v>
       </c>
@@ -8163,7 +8208,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>1619000000</v>
       </c>
@@ -8175,7 +8220,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>1623000000</v>
       </c>
@@ -8187,7 +8232,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>1620000000</v>
       </c>
@@ -8199,7 +8244,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>1622000000</v>
       </c>
@@ -8211,7 +8256,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>1625000000</v>
       </c>
@@ -8223,7 +8268,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>1622000000</v>
       </c>
@@ -8235,7 +8280,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>1617000000</v>
       </c>
@@ -8247,7 +8292,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>1623000000</v>
       </c>
@@ -8267,1279 +8312,1279 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:A253"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="144.85546875" customWidth="1"/>
+    <col min="1" max="1" width="144.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -9550,16 +9595,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>3564</v>
       </c>
@@ -9582,7 +9627,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3565</v>
       </c>
@@ -9605,7 +9650,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3559</v>
       </c>
@@ -9628,7 +9673,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3565</v>
       </c>
@@ -9651,7 +9696,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3567</v>
       </c>
@@ -9674,7 +9719,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3573</v>
       </c>
@@ -9697,7 +9742,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3563</v>
       </c>
@@ -9720,7 +9765,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3574</v>
       </c>
@@ -9743,7 +9788,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3557</v>
       </c>
@@ -9766,7 +9811,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3558</v>
       </c>
@@ -9789,7 +9834,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3558</v>
       </c>
@@ -9812,7 +9857,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3549</v>
       </c>
@@ -9835,7 +9880,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3547</v>
       </c>
@@ -9858,7 +9903,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3550</v>
       </c>
@@ -9881,7 +9926,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3533</v>
       </c>
@@ -9904,7 +9949,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3532</v>
       </c>
@@ -9927,7 +9972,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3543</v>
       </c>
@@ -9950,7 +9995,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3543</v>
       </c>
@@ -9970,7 +10015,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3544</v>
       </c>
@@ -9987,7 +10032,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3544</v>
       </c>
@@ -10004,7 +10049,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3536</v>
       </c>
@@ -10018,7 +10063,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3529</v>
       </c>
@@ -10032,7 +10077,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3528</v>
       </c>
@@ -10046,7 +10091,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3533</v>
       </c>
@@ -10060,7 +10105,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3533</v>
       </c>
@@ -10074,7 +10119,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3534</v>
       </c>
@@ -10088,7 +10133,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3533</v>
       </c>
@@ -10102,7 +10147,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3530</v>
       </c>
@@ -10116,7 +10161,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3530</v>
       </c>
@@ -10130,7 +10175,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C30">
         <v>4222</v>
       </c>
@@ -10141,7 +10186,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E31">
         <v>2796</v>
       </c>
@@ -10149,7 +10194,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <f>AVERAGE(A1:A29)</f>
         <v>3547.3793103448274</v>
@@ -10159,7 +10204,7 @@
         <v>4773.8500000000004</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="B34:G34" si="0">AVERAGE(C1:C29)</f>
+        <f t="shared" ref="C34:G34" si="0">AVERAGE(C1:C29)</f>
         <v>4217.7586206896549</v>
       </c>
       <c r="D34">
@@ -10179,7 +10224,7 @@
         <v>1620.9411764705883</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>0</v>
       </c>
@@ -10187,7 +10232,7 @@
         <v>3547.3793103448274</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>23</v>
       </c>
@@ -10195,7 +10240,7 @@
         <v>4773.8500000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B42">
         <f t="shared" ref="B42:B47" si="1">B41+23</f>
         <v>46</v>
@@ -10204,7 +10249,7 @@
         <v>4217.7586206896549</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B43">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -10213,7 +10258,7 @@
         <v>3419.2777777777778</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B44">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -10222,7 +10267,7 @@
         <v>2799.3103448275861</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B45">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -10231,7 +10276,7 @@
         <v>2244.4827586206898</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B46">
         <f t="shared" si="1"/>
         <v>138</v>
@@ -10240,7 +10285,7 @@
         <v>1620.9411764705883</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B47">
         <f t="shared" si="1"/>
         <v>161</v>
@@ -10249,12 +10294,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D49" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>255</v>
       </c>
@@ -10263,7 +10308,7 @@
         <v>4668.34</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>256</v>
       </c>
@@ -10271,7 +10316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F53" s="2"/>
     </row>
   </sheetData>
